--- a/gm4_furniture/furniture_data.xlsx
+++ b/gm4_furniture/furniture_data.xlsx
@@ -4,10 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="template_sheet" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="name_1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="wood_set" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="stone_set" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="cloth_set" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="wood_set" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="stone_set" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="cloth_set" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -240,66 +239,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="J3">
-      <text>
-        <t xml:space="preserve">length / depth / height
-On placement length and depth will offset one left/towards the player, then continue in the other direction.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M3">
-      <text>
-        <t xml:space="preserve">Can be interacted with to sit on it, value is height in 100th of a block,
-max 100</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N3">
-      <text>
-        <t xml:space="preserve">Can be dyed with the Paintbrush</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O3">
-      <text>
-        <t xml:space="preserve">Can only be placed against a wall. Height will be allowed to be offset 1 down, depth can not exceed 1</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P3">
-      <text>
-        <t xml:space="preserve">can only be placed with a block above, height will go down only</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Q3">
-      <text>
-        <t xml:space="preserve">Reduces the height of the interaction entity, so the top side of the block is not covered</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R3">
-      <text>
-        <t xml:space="preserve">scale in percentage, should be a float</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="S3">
-      <text>
-        <t xml:space="preserve">If the furniture is allowed to be placed at a 45 degree angle.
-If TRUE, depth and length will be limited to 1</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="T3">
-      <text>
-        <t xml:space="preserve">whether or not the furniture has a custom right-click interaction</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="99">
   <si>
     <t>tool_cmd</t>
   </si>
@@ -364,328 +305,229 @@
     <t>barrier</t>
   </si>
   <si>
+    <t>3420200</t>
+  </si>
+  <si>
+    <t>craft_result_count</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>oak_planks</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>plain_1x1_table_1</t>
+  </si>
+  <si>
+    <t>Small Oak Table</t>
+  </si>
+  <si>
+    <t>plain_2x2_table_1</t>
+  </si>
+  <si>
+    <t>Large Oak Table</t>
+  </si>
+  <si>
+    <t>plain_bench_1</t>
+  </si>
+  <si>
+    <t>Oak Bench</t>
+  </si>
+  <si>
     <t>3420202</t>
   </si>
   <si>
-    <t>craft_result_count</t>
-  </si>
-  <si>
-    <t>diag</t>
+    <t>plain_chair_1</t>
+  </si>
+  <si>
+    <t>Oak Chair</t>
+  </si>
+  <si>
+    <t>3420203</t>
+  </si>
+  <si>
+    <t>plain_stool_1</t>
+  </si>
+  <si>
+    <t>Oak Stool</t>
+  </si>
+  <si>
+    <t>3420204</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>plain_light_1</t>
+  </si>
+  <si>
+    <t>Oak Candle Holder</t>
+  </si>
+  <si>
+    <t>3420205</t>
+  </si>
+  <si>
+    <t>light[level=15]</t>
+  </si>
+  <si>
+    <t>dark_oak_planks</t>
+  </si>
+  <si>
+    <t>white_wool</t>
+  </si>
+  <si>
+    <t>fancy_1x1_table_1</t>
+  </si>
+  <si>
+    <t>Small Dark Oak Table</t>
+  </si>
+  <si>
+    <t>3420210</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>fancy_2x2_table_1</t>
+  </si>
+  <si>
+    <t>Large Dark Oak Table</t>
+  </si>
+  <si>
+    <t>3420211</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>fancy_bench_1</t>
+  </si>
+  <si>
+    <t>Dark Oak Bench</t>
+  </si>
+  <si>
+    <t>3420212</t>
+  </si>
+  <si>
+    <t>fancy_chair_1</t>
+  </si>
+  <si>
+    <t>Dark Oak Chair</t>
+  </si>
+  <si>
+    <t>3420213</t>
+  </si>
+  <si>
+    <t>fancy_stool_1</t>
+  </si>
+  <si>
+    <t>Dark Oak Stool</t>
+  </si>
+  <si>
+    <t>3420214</t>
+  </si>
+  <si>
+    <t>fancy_light_1</t>
+  </si>
+  <si>
+    <t>Dark Oak Lamp Shade</t>
+  </si>
+  <si>
+    <t>3420215</t>
+  </si>
+  <si>
+    <t>light[level=12]</t>
+  </si>
+  <si>
+    <t>stone_bricks</t>
+  </si>
+  <si>
+    <t>tadpole_bucket</t>
+  </si>
+  <si>
+    <t>statues_frog</t>
+  </si>
+  <si>
+    <t>Stone Frog Statue</t>
+  </si>
+  <si>
+    <t>3420230</t>
+  </si>
+  <si>
+    <t>bee_nest</t>
+  </si>
+  <si>
+    <t>statues_bee</t>
+  </si>
+  <si>
+    <t>Stone Bee Statue</t>
+  </si>
+  <si>
+    <t>3420231</t>
+  </si>
+  <si>
+    <t>pufferfish_bucket</t>
+  </si>
+  <si>
+    <t>statues_pufferfish</t>
+  </si>
+  <si>
+    <t>Stone Pufferfish Statue</t>
+  </si>
+  <si>
+    <t>3420232</t>
+  </si>
+  <si>
+    <t>axolotl_bucket</t>
+  </si>
+  <si>
+    <t>statues_axolotl</t>
+  </si>
+  <si>
+    <t>Stone Axolotl Statue</t>
+  </si>
+  <si>
+    <t>3420233</t>
+  </si>
+  <si>
+    <t>jukebox</t>
+  </si>
+  <si>
+    <t>statues_allay</t>
+  </si>
+  <si>
+    <t>Stone Allay Statue</t>
+  </si>
+  <si>
+    <t>3420234</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>paper_lantern_1</t>
+  </si>
+  <si>
+    <t>Paper Lantern</t>
+  </si>
+  <si>
+    <t>3420280</t>
   </si>
   <si>
     <t>stick</t>
   </si>
   <si>
-    <t>iron_ingot</t>
-  </si>
-  <si>
-    <t>wooden_stool_1</t>
-  </si>
-  <si>
-    <t>Wooden Stool</t>
-  </si>
-  <si>
-    <t>wooden_stool_2</t>
-  </si>
-  <si>
-    <t>wooden_chair_1</t>
-  </si>
-  <si>
-    <t>Wooden Chair</t>
-  </si>
-  <si>
-    <t>3420203</t>
-  </si>
-  <si>
-    <t>wooden_chair_2</t>
-  </si>
-  <si>
-    <t>3420204</t>
-  </si>
-  <si>
-    <t>wooden_bench_1</t>
-  </si>
-  <si>
-    <t>Wooden Bench</t>
-  </si>
-  <si>
-    <t>3420205</t>
-  </si>
-  <si>
-    <t>wooden_bench_2</t>
-  </si>
-  <si>
-    <t>3420206</t>
-  </si>
-  <si>
-    <t>dyable_armchair_1</t>
-  </si>
-  <si>
-    <t>Cloth Armchair</t>
-  </si>
-  <si>
-    <t>3420207</t>
-  </si>
-  <si>
-    <t>wooden_3_candle_holder_1</t>
-  </si>
-  <si>
-    <t>Candelabra</t>
-  </si>
-  <si>
-    <t>3420208</t>
-  </si>
-  <si>
-    <t>light[level=15]</t>
-  </si>
-  <si>
-    <t>wooden_5_candle_holder_1</t>
-  </si>
-  <si>
-    <t>3420209</t>
-  </si>
-  <si>
-    <t>dyable_stool_1</t>
-  </si>
-  <si>
-    <t>Ottoman</t>
-  </si>
-  <si>
-    <t>3420210</t>
-  </si>
-  <si>
-    <t>wooden_table_1</t>
-  </si>
-  <si>
-    <t>Wooden Table</t>
-  </si>
-  <si>
-    <t>3420211</t>
-  </si>
-  <si>
-    <t>wooden_table_2</t>
-  </si>
-  <si>
-    <t>3420212</t>
-  </si>
-  <si>
-    <t>dyable_wooden_table_1</t>
-  </si>
-  <si>
-    <t>Wooden Table with Cloth</t>
-  </si>
-  <si>
-    <t>3420213</t>
-  </si>
-  <si>
-    <t>dyable_wooden_sofa_1</t>
-  </si>
-  <si>
-    <t>Unnamed</t>
-  </si>
-  <si>
-    <t>3420214</t>
-  </si>
-  <si>
-    <t>2x1_log_seat_1</t>
-  </si>
-  <si>
-    <t>3420215</t>
-  </si>
-  <si>
-    <t>1x1_log_seat_1</t>
-  </si>
-  <si>
-    <t>3420216</t>
-  </si>
-  <si>
-    <t>stone_frog_statue</t>
-  </si>
-  <si>
-    <t>3420217</t>
-  </si>
-  <si>
-    <t>wooden_wall_candle_holder_1</t>
-  </si>
-  <si>
-    <t>3420218</t>
-  </si>
-  <si>
-    <t>dyable_wooden_chair_1</t>
-  </si>
-  <si>
-    <t>3420219</t>
-  </si>
-  <si>
-    <t>gold_5_candle_holder_1</t>
-  </si>
-  <si>
-    <t>3420220</t>
-  </si>
-  <si>
-    <t>gold_3_candle_holder_1</t>
-  </si>
-  <si>
-    <t>3420221</t>
-  </si>
-  <si>
-    <t>iron_5_candle_holder_1</t>
-  </si>
-  <si>
-    <t>3420222</t>
-  </si>
-  <si>
-    <t>iron_3_candle_holder_1</t>
-  </si>
-  <si>
-    <t>3420223</t>
-  </si>
-  <si>
-    <t>2x2_wooden_table_2</t>
-  </si>
-  <si>
-    <t>3420224</t>
-  </si>
-  <si>
-    <t>3420200</t>
-  </si>
-  <si>
-    <t>wood_set_1_plain_1x1_table_1</t>
-  </si>
-  <si>
-    <t>Plain Wood Table</t>
-  </si>
-  <si>
-    <t>wood_set_1_plain_2x2_table_1</t>
-  </si>
-  <si>
-    <t>Large Plain Wood Table</t>
-  </si>
-  <si>
-    <t>wood_set_1_plain_bench_1</t>
-  </si>
-  <si>
-    <t>Plain Wood Bench</t>
-  </si>
-  <si>
-    <t>wood_set_1_plain_chair_1</t>
-  </si>
-  <si>
-    <t>Plain Wood Chair</t>
-  </si>
-  <si>
-    <t>wood_set_1_plain_stool_1</t>
-  </si>
-  <si>
-    <t>Plain Wood Stool</t>
-  </si>
-  <si>
-    <t>wood_set_1_plain_light_1</t>
-  </si>
-  <si>
-    <t>Plain Wood Candle Holder</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>wood_set_1_fancy_1x1_table_1</t>
-  </si>
-  <si>
-    <t>Fancy Wood Table</t>
-  </si>
-  <si>
-    <t>wood_set_1_fancy_2x2_table_1</t>
-  </si>
-  <si>
-    <t>Large Fancy Wood Table</t>
-  </si>
-  <si>
-    <t>wood_set_1_fancy_bench_1</t>
-  </si>
-  <si>
-    <t>Fancy Wood Bench</t>
-  </si>
-  <si>
-    <t>wood_set_1_fancy_chair_1</t>
-  </si>
-  <si>
-    <t>Fancy Wood Chair</t>
-  </si>
-  <si>
-    <t>wood_set_1_fancy_stool_1</t>
-  </si>
-  <si>
-    <t>Fancy Wood Stool</t>
-  </si>
-  <si>
-    <t>wood_set_1_fancy_light_1</t>
-  </si>
-  <si>
-    <t>Fancy Wood Lamp Shade</t>
-  </si>
-  <si>
-    <t>light[level=12]</t>
-  </si>
-  <si>
-    <t>stone_set_1_statues_frog</t>
-  </si>
-  <si>
-    <t>Stone Frog Statue</t>
-  </si>
-  <si>
-    <t>3420230</t>
-  </si>
-  <si>
-    <t>stone_set_1_statues_bee</t>
-  </si>
-  <si>
-    <t>Stone Bee Statue</t>
-  </si>
-  <si>
-    <t>3420231</t>
-  </si>
-  <si>
-    <t>stone_set_1_statues_pufferfish</t>
-  </si>
-  <si>
-    <t>Stone Pufferfish Statue</t>
-  </si>
-  <si>
-    <t>3420232</t>
-  </si>
-  <si>
-    <t>stone_set_1_statues_axolotl</t>
-  </si>
-  <si>
-    <t>Stone Axolotl Statue</t>
-  </si>
-  <si>
-    <t>3420233</t>
-  </si>
-  <si>
-    <t>stone_set_1_statues_allay</t>
-  </si>
-  <si>
-    <t>Stone Allay Statue</t>
-  </si>
-  <si>
-    <t>3420234</t>
-  </si>
-  <si>
-    <t>cloth_set_1_paper_lantern_1</t>
-  </si>
-  <si>
-    <t>Paper Lantern</t>
-  </si>
-  <si>
-    <t>3420280</t>
-  </si>
-  <si>
-    <t>cloth_set_1_horizontal_flag_1</t>
+    <t>horizontal_flag_1</t>
   </si>
   <si>
     <t>Long Flag</t>
@@ -701,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -728,10 +570,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Arial&quot;"/>
     </font>
   </fonts>
   <fills count="5">
@@ -791,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -838,23 +676,13 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -919,10 +747,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5430,8 +5254,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.25"/>
-    <col customWidth="1" min="2" max="2" width="2.38"/>
+    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col customWidth="1" min="2" max="2" width="3.0"/>
     <col customWidth="1" min="3" max="3" width="10.0"/>
     <col customWidth="1" min="4" max="5" width="3.13"/>
     <col customWidth="1" min="6" max="6" width="25.0"/>
@@ -5495,10 +5319,10 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5561,52 +5385,52 @@
         <v>24</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6">
-        <v>1.0</v>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="6">
         <v>1.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>50.0</v>
-      </c>
-      <c r="N4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="R4" s="11">
         <v>1.0</v>
@@ -5623,40 +5447,40 @@
         <v>24</v>
       </c>
       <c r="B5" s="6">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6">
-        <v>1.0</v>
+      <c r="D5" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="6">
         <v>1.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1.0</v>
+      <c r="J5" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>2.0</v>
       </c>
       <c r="L5" s="8">
         <v>1.0</v>
       </c>
-      <c r="M5" s="16">
-        <v>50.0</v>
+      <c r="M5" s="9">
+        <v>0.0</v>
       </c>
       <c r="N5" s="10" t="b">
         <v>0</v>
@@ -5667,8 +5491,8 @@
       <c r="P5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="10" t="b">
-        <v>0</v>
+      <c r="Q5" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="R5" s="11">
         <v>1.0</v>
@@ -5685,31 +5509,31 @@
         <v>24</v>
       </c>
       <c r="B6" s="6">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6">
-        <v>1.0</v>
+      <c r="D6" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="6">
         <v>1.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="8">
-        <v>1.0</v>
+      <c r="J6" s="17">
+        <v>3.0</v>
       </c>
       <c r="K6" s="8">
         <v>1.0</v>
@@ -5717,13 +5541,13 @@
       <c r="L6" s="8">
         <v>1.0</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="9">
         <v>50.0</v>
       </c>
       <c r="N6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="11" t="b">
+      <c r="O6" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P6" s="10" t="b">
@@ -5747,25 +5571,25 @@
         <v>24</v>
       </c>
       <c r="B7" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6">
-        <v>1.0</v>
+      <c r="D7" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="6">
         <v>1.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>20</v>
@@ -5779,7 +5603,7 @@
       <c r="L7" s="8">
         <v>1.0</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="18">
         <v>50.0</v>
       </c>
       <c r="N7" s="10" t="b">
@@ -5809,31 +5633,31 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
-        <v>1.0</v>
+      <c r="D8" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="6">
         <v>1.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="17">
-        <v>3.0</v>
+      <c r="J8" s="13">
+        <v>1.0</v>
       </c>
       <c r="K8" s="8">
         <v>1.0</v>
@@ -5841,7 +5665,7 @@
       <c r="L8" s="8">
         <v>1.0</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="18">
         <v>50.0</v>
       </c>
       <c r="N8" s="10" t="b">
@@ -5871,31 +5695,31 @@
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="6">
         <v>1.0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3.0</v>
+        <v>42</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1.0</v>
       </c>
       <c r="K9" s="8">
         <v>1.0</v>
@@ -5903,11 +5727,11 @@
       <c r="L9" s="8">
         <v>1.0</v>
       </c>
-      <c r="M9" s="16">
-        <v>50.0</v>
+      <c r="M9" s="9">
+        <v>0.0</v>
       </c>
       <c r="N9" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="10" t="b">
         <v>0</v>
@@ -5930,28 +5754,28 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.0</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="6">
         <v>1.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>20</v>
@@ -5965,10 +5789,10 @@
       <c r="L10" s="8">
         <v>1.0</v>
       </c>
-      <c r="M10" s="16">
-        <v>50.0</v>
-      </c>
-      <c r="N10" s="18" t="b">
+      <c r="M10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="11" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="10" t="b">
@@ -5977,8 +5801,8 @@
       <c r="P10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="10" t="b">
-        <v>0</v>
+      <c r="Q10" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="R10" s="11">
         <v>1.0</v>
@@ -5992,45 +5816,45 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.0</v>
+        <v>47</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="6">
         <v>1.0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1.0</v>
+        <v>52</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2.0</v>
       </c>
       <c r="L11" s="8">
         <v>1.0</v>
       </c>
-      <c r="M11" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="18" t="b">
+      <c r="M11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="11" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="10" t="b">
@@ -6039,8 +5863,8 @@
       <c r="P11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" s="10" t="b">
-        <v>0</v>
+      <c r="Q11" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="R11" s="11">
         <v>1.0</v>
@@ -6054,34 +5878,34 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.0</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="6">
         <v>1.0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1.0</v>
+        <v>56</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="17">
+        <v>3.0</v>
       </c>
       <c r="K12" s="8">
         <v>1.0</v>
@@ -6089,10 +5913,10 @@
       <c r="L12" s="8">
         <v>1.0</v>
       </c>
-      <c r="M12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="18" t="b">
+      <c r="M12" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="N12" s="11" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="10" t="b">
@@ -6101,7 +5925,7 @@
       <c r="P12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="10" t="b">
+      <c r="Q12" s="14" t="b">
         <v>0</v>
       </c>
       <c r="R12" s="11">
@@ -6116,28 +5940,28 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.0</v>
+        <v>47</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="6">
         <v>1.0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>20</v>
@@ -6151,16 +5975,16 @@
       <c r="L13" s="8">
         <v>1.0</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="18">
         <v>50.0</v>
       </c>
-      <c r="N13" s="18" t="b">
+      <c r="N13" s="11" t="b">
         <v>1</v>
       </c>
       <c r="O13" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="11" t="b">
+      <c r="P13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Q13" s="10" t="b">
@@ -6178,33 +6002,33 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.0</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="6">
         <v>1.0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="13">
         <v>1.0</v>
       </c>
       <c r="K14" s="8">
@@ -6213,11 +6037,11 @@
       <c r="L14" s="8">
         <v>1.0</v>
       </c>
-      <c r="M14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="10" t="b">
-        <v>0</v>
+      <c r="M14" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="N14" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="O14" s="10" t="b">
         <v>0</v>
@@ -6225,8 +6049,8 @@
       <c r="P14" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" s="18" t="b">
-        <v>1</v>
+      <c r="Q14" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="R14" s="11">
         <v>1.0</v>
@@ -6240,33 +6064,33 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.0</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="6">
         <v>1.0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="8">
+        <v>65</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="13">
         <v>1.0</v>
       </c>
       <c r="K15" s="8">
@@ -6275,11 +6099,11 @@
       <c r="L15" s="8">
         <v>1.0</v>
       </c>
-      <c r="M15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="10" t="b">
-        <v>0</v>
+      <c r="M15" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="11" t="b">
+        <v>1</v>
       </c>
       <c r="O15" s="10" t="b">
         <v>0</v>
@@ -6287,8 +6111,8 @@
       <c r="P15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="18" t="b">
-        <v>1</v>
+      <c r="Q15" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="R15" s="11">
         <v>1.0</v>
@@ -6300,798 +6124,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S23" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T25" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T27" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I27 S4:T23">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(I4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R27">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="R4:R15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L27">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="J4:L15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M27">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="M4:M15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q27 S4:T27">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="N4:Q15 S4:T15">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH(("TRUE"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L27 S4:S23">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+  <conditionalFormatting sqref="J4:L15">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M27">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+  <conditionalFormatting sqref="M4:M15">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q27 S4:T27">
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="N4:Q15 S4:T15">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH(("FALSE"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R27">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+  <conditionalFormatting sqref="R4:S15">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2 H4:T15 F5:G15">
+    <cfRule type="containsBlanks" dxfId="3" priority="9">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I15">
       <formula1>"barrier,light[level=0],light[level=15],light[level=1],light[level=2],light[level=3],light[level=4],light[level=5],light[level=6],light[level=7],light[level=8],light[level=9],light[level=10],light[level=11],light[level=12],light[level=13],light[level=14]"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7110,10 +6190,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="1" max="1" width="12.25"/>
     <col customWidth="1" min="2" max="2" width="2.38"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="5" width="3.13"/>
+    <col customWidth="1" min="3" max="3" width="14.25"/>
+    <col customWidth="1" min="4" max="4" width="3.13"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
     <col customWidth="1" min="6" max="6" width="25.0"/>
     <col customWidth="1" min="7" max="7" width="19.63"/>
     <col customWidth="1" min="10" max="12" width="5.13"/>
@@ -7152,7 +6233,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7175,10 +6256,10 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7238,13 +6319,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6">
         <v>1.0</v>
@@ -7253,15 +6334,15 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="8">
@@ -7276,7 +6357,7 @@
       <c r="M4" s="9">
         <v>0.0</v>
       </c>
-      <c r="N4" s="10" t="b">
+      <c r="N4" s="11" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="11" t="b">
@@ -7286,27 +6367,27 @@
         <v>0</v>
       </c>
       <c r="Q4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6">
         <v>1.0</v>
@@ -7315,60 +6396,60 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="S5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D6" s="6">
         <v>1.0</v>
@@ -7377,19 +6458,19 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="19">
-        <v>3.0</v>
+        <v>81</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.0</v>
       </c>
       <c r="K6" s="8">
         <v>1.0</v>
@@ -7398,18 +6479,18 @@
         <v>1.0</v>
       </c>
       <c r="M6" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" t="b">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11" t="b">
         <v>0</v>
       </c>
       <c r="R6" s="11">
@@ -7418,19 +6499,19 @@
       <c r="S6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="10" t="b">
-        <v>0</v>
+      <c r="T6" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6">
         <v>1.0</v>
@@ -7439,15 +6520,15 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="8">
@@ -7459,19 +6540,19 @@
       <c r="L7" s="8">
         <v>1.0</v>
       </c>
-      <c r="M7" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="N7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10" t="b">
+      <c r="M7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="11">
@@ -7480,19 +6561,19 @@
       <c r="S7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="10" t="b">
-        <v>0</v>
+      <c r="T7" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6">
         <v>1.0</v>
@@ -7501,18 +6582,18 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="13">
+        <v>89</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8">
         <v>1.0</v>
       </c>
       <c r="K8" s="8">
@@ -7521,19 +6602,19 @@
       <c r="L8" s="8">
         <v>1.0</v>
       </c>
-      <c r="M8" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="N8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10" t="b">
+      <c r="M8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="11">
@@ -7542,988 +6623,58 @@
       <c r="S8" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="11" t="b">
+      <c r="T8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="N16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="N17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="N18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G23" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S23" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10" t="b">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R4:R23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="A4:C8 F4:T8">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R8">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="J4:L8">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M23">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="M4:M8">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q23 S4:T23">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="TRUE">
+  <conditionalFormatting sqref="N4:Q8 S4:T8">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH(("TRUE"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L23">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="J4:L8 R4:S8">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M23">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+  <conditionalFormatting sqref="M4:M8">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q23 S4:T23">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="N4:Q8 S4:T8">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH(("FALSE"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:S23">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+  <conditionalFormatting sqref="R4:R8">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2 H4:T23 F5:G23 A10:C13 A20:C23">
-    <cfRule type="containsBlanks" dxfId="3" priority="9">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I8">
       <formula1>"barrier,light[level=0],light[level=15],light[level=1],light[level=2],light[level=3],light[level=4],light[level=5],light[level=6],light[level=7],light[level=8],light[level=9],light[level=10],light[level=11],light[level=12],light[level=13],light[level=14]"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8542,20 +6693,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.25"/>
-    <col customWidth="1" min="2" max="2" width="2.38"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="4" width="3.13"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="25.0"/>
-    <col customWidth="1" min="7" max="7" width="19.63"/>
-    <col customWidth="1" min="10" max="12" width="5.13"/>
-    <col customWidth="1" min="13" max="13" width="9.38"/>
-    <col customWidth="1" min="14" max="14" width="9.5"/>
-    <col customWidth="1" min="15" max="15" width="11.63"/>
-    <col customWidth="1" min="16" max="16" width="15.0"/>
-    <col customWidth="1" min="17" max="17" width="7.63"/>
-    <col customWidth="1" min="18" max="19" width="8.0"/>
+    <col customWidth="1" min="6" max="6" width="25.25"/>
+    <col customWidth="1" min="7" max="7" width="25.38"/>
+    <col customWidth="1" min="19" max="19" width="8.0"/>
     <col customWidth="1" min="20" max="20" width="10.13"/>
   </cols>
   <sheetData>
@@ -8585,7 +6725,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8608,10 +6748,10 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8671,31 +6811,31 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" s="6">
         <v>1.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J4" s="8">
         <v>1.0</v>
@@ -8710,13 +6850,13 @@
         <v>0.0</v>
       </c>
       <c r="N4" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="11" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="11" t="b">
         <v>0</v>
@@ -8727,1521 +6867,37 @@
       <c r="S4" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="11" t="b">
-        <v>1</v>
+      <c r="T4" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="6">
         <v>1.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G23" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S23" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S24" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:C24 F4:T24">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R24">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L24">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M24">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q24 S4:T24">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH(("TRUE"),(N4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L24 R4:R24 S4:S23">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M24">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q24 S4:T24">
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH(("FALSE"),(N4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R24">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I24">
-      <formula1>"barrier,light[level=0],light[level=15],light[level=1],light[level=2],light[level=3],light[level=4],light[level=5],light[level=6],light[level=7],light[level=8],light[level=9],light[level=10],light[level=11],light[level=12],light[level=13],light[level=14]"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="6" max="6" width="25.25"/>
-    <col customWidth="1" min="7" max="7" width="25.38"/>
-    <col customWidth="1" min="19" max="19" width="8.0"/>
-    <col customWidth="1" min="20" max="20" width="10.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="J5" s="8">
         <v>1.0</v>
@@ -10277,1170 +6933,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G7" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="G23" s="21">
-        <v>123.0</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="S23" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="R4:R23">
+  <conditionalFormatting sqref="R4:R5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L23">
+  <conditionalFormatting sqref="J4:L5">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M23">
+  <conditionalFormatting sqref="M4:M5">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q23 S4:T23">
+  <conditionalFormatting sqref="N4:Q5 S4:T5">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH(("TRUE"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L23 S4:S23">
+  <conditionalFormatting sqref="J4:L5 S4:S5">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M23">
+  <conditionalFormatting sqref="M4:M5">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:Q23 S4:T23">
+  <conditionalFormatting sqref="N4:Q5 S4:T5">
     <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH(("FALSE"),(N4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R23">
+  <conditionalFormatting sqref="R4:R5">
     <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2 H4:T23 F5:G23 A6:C23">
+  <conditionalFormatting sqref="A2 H4:T5 F5:G5">
     <cfRule type="containsBlanks" dxfId="3" priority="9">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I5">
       <formula1>"barrier,light[level=0],light[level=15],light[level=1],light[level=2],light[level=3],light[level=4],light[level=5],light[level=6],light[level=7],light[level=8],light[level=9],light[level=10],light[level=11],light[level=12],light[level=13],light[level=14]"</formula1>
     </dataValidation>
   </dataValidations>
